--- a/backend/database/PostgreSQL-contracts.xlsx
+++ b/backend/database/PostgreSQL-contracts.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="create-contracts" sheetId="1" r:id="rId1"/>
-    <sheet name="create-aditivos" sheetId="2" r:id="rId2"/>
+    <sheet name="raw" sheetId="3" r:id="rId1"/>
+    <sheet name="create-contracts" sheetId="1" r:id="rId2"/>
+    <sheet name="insert-contracts" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t xml:space="preserve">CREATE TABLE </t>
   </si>
@@ -26,44 +27,116 @@
     <t xml:space="preserve"> (</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>UNIQUE NOT NULL,</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
     <t>NOT NULL,</t>
   </si>
   <si>
-    <t>data_assinatura</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>aditivos</t>
+    <t>contract_id</t>
+  </si>
+  <si>
+    <t>sign_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>begin_date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>NOT NULL PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>CT-2016-0134</t>
+  </si>
+  <si>
+    <t>CTA-2017-0119</t>
+  </si>
+  <si>
+    <t>CT-2016-0165</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>TE-2014-0017</t>
+  </si>
+  <si>
+    <t>2017-11-23</t>
+  </si>
+  <si>
+    <t>2016-09-23</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.</t>
+  </si>
+  <si>
+    <t>CEB Distribuição S.A.</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306</t>
+  </si>
+  <si>
+    <t>2017-12-29</t>
+  </si>
+  <si>
+    <t>Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.
+</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,15 +171,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,9 +491,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -419,7 +634,7 @@
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,36 +649,92 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="str">
+        <f t="array" ref="A2:A8">TRANSPOSE(raw!A1:G1)</f>
+        <v>contract_id</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <v>sign_date</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <v>end_date</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <v>begin_date</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <v>description</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <v>company</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -471,75 +742,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="158.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>CONCATENATE("NOT NULL REFERENCES ",'create-contracts'!B1," (",'create-contracts'!A2,")")</f>
-        <v>NOT NULL REFERENCES contracts (id)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A2,"', ","'",raw!B2,"', ","'",raw!C2,"', ","'",raw!D2,"', ","'",raw!E2,"', ","'",raw!F2,"', ","'",raw!G2,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', 'null', 'null', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A3,"', ","'",raw!B3,"', ","'",raw!C3,"', ","'",raw!D3,"', ","'",raw!E3,"', ","'",raw!F3,"', ","'",raw!G3,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CTA-2017-0119', '2017-12-29', 'null', 'null', 'Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A4,"', ","'",raw!B4,"', ","'",raw!C4,"', ","'",raw!D4,"', ","'",raw!E4,"', ","'",raw!F4,"', ","'",raw!G4,"');")</f>
+        <v>INSERT INTO contracts VALUES ('TE-2014-0017', '2017-11-23', 'null', 'null', '', '', '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A5,"', ","'",raw!B5,"', ","'",raw!C5,"', ","'",raw!D5,"', ","'",raw!E5,"', ","'",raw!F5,"', ","'",raw!G5,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2016-0165', '2016-12-19', 'null', 'null', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.
+', '', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931');</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/PostgreSQL-contracts.xlsx
+++ b/backend/database/PostgreSQL-contracts.xlsx
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,7 +494,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,8 +542,8 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -565,8 +565,8 @@
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -588,8 +588,8 @@
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,8 +602,8 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>31</v>
@@ -627,7 +627,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
   <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,26 +758,26 @@
   <sheetData>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A2,"', ","'",raw!B2,"', ","'",raw!C2,"', ","'",raw!D2,"', ","'",raw!E2,"', ","'",raw!F2,"', ","'",raw!G2,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', 'null', 'null', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A2,"', ","'",raw!B2,"', ",raw!C2,", ","'",raw!D2,"', ","'",raw!E2,"', ","'",raw!F2,"', ","'",raw!G2,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A3,"', ","'",raw!B3,"', ","'",raw!C3,"', ","'",raw!D3,"', ","'",raw!E3,"', ","'",raw!F3,"', ","'",raw!G3,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CTA-2017-0119', '2017-12-29', 'null', 'null', 'Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306');</v>
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A3,"', ","'",raw!B3,"', ",raw!C3,", ","'",raw!D3,"', ","'",raw!E3,"', ","'",raw!F3,"', ","'",raw!G3,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CTA-2017-0119', '2017-12-29', null, '2017-12-29', 'Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306');</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A4,"', ","'",raw!B4,"', ","'",raw!C4,"', ","'",raw!D4,"', ","'",raw!E4,"', ","'",raw!F4,"', ","'",raw!G4,"');")</f>
-        <v>INSERT INTO contracts VALUES ('TE-2014-0017', '2017-11-23', 'null', 'null', '', '', '');</v>
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A4,"', ","'",raw!B4,"', ",raw!C4,", ","'",raw!D4,"', ","'",raw!E4,"', ","'",raw!F4,"', ","'",raw!G4,"');")</f>
+        <v>INSERT INTO contracts VALUES ('TE-2014-0017', '2017-11-23', null, '2017-11-23', '', '', '');</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A5,"', ","'",raw!B5,"', ","'",raw!C5,"', ","'",raw!D5,"', ","'",raw!E5,"', ","'",raw!F5,"', ","'",raw!G5,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2016-0165', '2016-12-19', 'null', 'null', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A5,"', ","'",raw!B5,"', ",raw!C5,", ","'",raw!D5,"', ","'",raw!E5,"', ","'",raw!F5,"', ","'",raw!G5,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2016-0165', '2016-12-19', null, '2016-12-19', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.
 ', '', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931');</v>
       </c>
     </row>

--- a/backend/database/PostgreSQL-contracts.xlsx
+++ b/backend/database/PostgreSQL-contracts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t xml:space="preserve">CREATE TABLE </t>
   </si>
@@ -81,9 +81,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>TE-2014-0017</t>
-  </si>
-  <si>
     <t>2017-11-23</t>
   </si>
   <si>
@@ -111,14 +108,61 @@
     <t>Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.
-</t>
-  </si>
-  <si>
     <t>2016-12-19</t>
   </si>
   <si>
     <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931</t>
+  </si>
+  <si>
+    <t>CT-2014-0088</t>
+  </si>
+  <si>
+    <t>2014-12-09</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para a prestação de serviços de manutenção no Sistema de Geração de Energia Elétrica de Emergência, do Complexo Arquitetônico do SENADO FEDERAL, composto de 05 (cinco) grupos motores-geradores, movidos à óleo diesel, durante o período de 36 (trinta e seis) meses consecutivos.</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3095</t>
+  </si>
+  <si>
+    <t>RCS Tecnologia Ltda.</t>
+  </si>
+  <si>
+    <t>CAESB - Companhia de Saneamento Ambiental do Distrito Federal</t>
+  </si>
+  <si>
+    <t>O Ministério de Estado do Planejamento, Desenvolvimento e Gestão, através da Secretaria de Patrimônio da União - MPDG/SPU - e a Presidência do SENADO FEDERAL, no uso de suas atribuições legais, resolvem celebrar a transferência ao Senado Federal, por meio de cessão de uso, do imóvel de propriedade da União situado no Setor de Clubes Esportivos Sul - SCE/SUL - Trecho 3 - Lote 07 - Brasília - Distrito Federal.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4262</t>
+  </si>
+  <si>
+    <t>CT-2016-110</t>
+  </si>
+  <si>
+    <t>2016-08-25</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para a prestação de serviços continuados e sob demanda, referentes à operação e manutenção preventiva e corretiva do Sistema Elétrico do Complexo Arquitetônico do SENADO FEDERAL, com operação de sistema informatizado de gerenciamento de manutenção e suprimento de insumos necessários à execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3769</t>
+  </si>
+  <si>
+    <t>Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.</t>
+  </si>
+  <si>
+    <t>'2019-12-08'</t>
+  </si>
+  <si>
+    <t>'2021-08-24'</t>
+  </si>
+  <si>
+    <t>TE-2017-0014</t>
   </si>
 </sst>
 </file>
@@ -175,16 +219,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +550,7 @@
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="111.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -532,84 +579,143 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>B6</f>
+        <v>2014-12-09</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +723,9 @@
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -744,41 +853,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="158.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="169.7109375" style="6" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="str">
+      <c r="A2" s="6" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A2,"', ","'",raw!B2,"', ",raw!C2,", ","'",raw!D2,"', ","'",raw!E2,"', ","'",raw!F2,"', ","'",raw!G2,"');")</f>
         <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="str">
+      <c r="A3" s="6" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A3,"', ","'",raw!B3,"', ",raw!C3,", ","'",raw!D3,"', ","'",raw!E3,"', ","'",raw!F3,"', ","'",raw!G3,"');")</f>
         <v>INSERT INTO contracts VALUES ('CTA-2017-0119', '2017-12-29', null, '2017-12-29', 'Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306');</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="str">
+    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A4,"', ","'",raw!B4,"', ",raw!C4,", ","'",raw!D4,"', ","'",raw!E4,"', ","'",raw!F4,"', ","'",raw!G4,"');")</f>
-        <v>INSERT INTO contracts VALUES ('TE-2014-0017', '2017-11-23', null, '2017-11-23', '', '', '');</v>
+        <v>INSERT INTO contracts VALUES ('TE-2017-0014', '2017-11-23', null, '2017-11-23', 'O Ministério de Estado do Planejamento, Desenvolvimento e Gestão, através da Secretaria de Patrimônio da União - MPDG/SPU - e a Presidência do SENADO FEDERAL, no uso de suas atribuições legais, resolvem celebrar a transferência ao Senado Federal, por meio de cessão de uso, do imóvel de propriedade da União situado no Setor de Clubes Esportivos Sul - SCE/SUL - Trecho 3 - Lote 07 - Brasília - Distrito Federal.', 'N/A', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4262');</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="str">
+      <c r="A5" s="6" t="str">
         <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A5,"', ","'",raw!B5,"', ",raw!C5,", ","'",raw!D5,"', ","'",raw!E5,"', ","'",raw!F5,"', ","'",raw!G5,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2016-0165', '2016-12-19', null, '2016-12-19', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.
-', '', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931');</v>
+        <v>INSERT INTO contracts VALUES ('CT-2016-0165', '2016-12-19', null, '2016-12-19', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.', 'CAESB - Companhia de Saneamento Ambiental do Distrito Federal', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A6,"', ","'",raw!B6,"', ",raw!C6,", ","'",raw!D6,"', ","'",raw!E6,"', ","'",raw!F6,"', ","'",raw!G6,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2014-0088', '2014-12-09', '2019-12-08', '2014-12-09', 'Contratação de empresa especializada para a prestação de serviços de manutenção no Sistema de Geração de Energia Elétrica de Emergência, do Complexo Arquitetônico do SENADO FEDERAL, composto de 05 (cinco) grupos motores-geradores, movidos à óleo diesel, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3095');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A7,"', ","'",raw!B7,"', ",raw!C7,", ","'",raw!D7,"', ","'",raw!E7,"', ","'",raw!F7,"', ","'",raw!G7,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2016-110', '2016-08-25', '2021-08-24', '2016-08-25', 'Contratação de empresa especializada para a prestação de serviços continuados e sob demanda, referentes à operação e manutenção preventiva e corretiva do Sistema Elétrico do Complexo Arquitetônico do SENADO FEDERAL, com operação de sistema informatizado de gerenciamento de manutenção e suprimento de insumos necessários à execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3769');</v>
       </c>
     </row>
   </sheetData>

--- a/backend/database/PostgreSQL-contracts.xlsx
+++ b/backend/database/PostgreSQL-contracts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t xml:space="preserve">CREATE TABLE </t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>TE-2017-0014</t>
+  </si>
+  <si>
+    <t>CT-2017-0084</t>
+  </si>
+  <si>
+    <t>2017-10-24</t>
+  </si>
+  <si>
+    <t>'2017-12-01'</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços continuados e sob demanda, referentes à operação, manutenção preventiva e corretiva do Sistema Hidrossanitário em todo o Complexo Arquitetônico do SENADO FEDERAL, incluindo a operação de sistema de controle de manutenção informatizado, fornecimento de suprimentos, insumos e de mão de obra necessários à plena execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.</t>
+  </si>
+  <si>
+    <t>https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4298</t>
   </si>
 </sst>
 </file>
@@ -538,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +736,29 @@
         <v>44</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -726,6 +767,7 @@
     <hyperlink ref="G6" r:id="rId4"/>
     <hyperlink ref="G4" r:id="rId5"/>
     <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -853,10 +895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,6 +943,12 @@
         <v>INSERT INTO contracts VALUES ('CT-2016-110', '2016-08-25', '2021-08-24', '2016-08-25', 'Contratação de empresa especializada para a prestação de serviços continuados e sob demanda, referentes à operação e manutenção preventiva e corretiva do Sistema Elétrico do Complexo Arquitetônico do SENADO FEDERAL, com operação de sistema informatizado de gerenciamento de manutenção e suprimento de insumos necessários à execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3769');</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A8,"', ","'",raw!B8,"', ",raw!C8,", ","'",raw!D8,"', ","'",raw!E8,"', ","'",raw!F8,"', ","'",raw!G8,"');")</f>
+        <v>INSERT INTO contracts VALUES ('CT-2017-0084', '2017-10-24', '2017-12-01', '2020-11-30', 'Contratação de empresa especializada para prestação de serviços continuados e sob demanda, referentes à operação, manutenção preventiva e corretiva do Sistema Hidrossanitário em todo o Complexo Arquitetônico do SENADO FEDERAL, incluindo a operação de sistema de controle de manutenção informatizado, fornecimento de suprimentos, insumos e de mão de obra necessários à plena execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4298');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/backend/database/PostgreSQL-contracts.xlsx
+++ b/backend/database/PostgreSQL-contracts.xlsx
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -907,46 +907,46 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A2,"', ","'",raw!B2,"', ",raw!C2,", ","'",raw!D2,"', ","'",raw!E2,"', ","'",raw!F2,"', ","'",raw!G2,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A2,"', ","'",raw!B2,"', ",raw!C2,", ","'",raw!D2,"', ","'",raw!E2,"', ","'",raw!F2,"', ","'",raw!G2,"');")</f>
+        <v>insert into contracts values ('CT-2016-0134', '2016-09-23', null, '2016-09-23', 'Contrato de Compra de Energia Regulada - CCER - entre o SENADO FEDERAL e a CEB Distribuição S/A, de energia elétrica para as unidades consumidoras de identificação nº 466.453-1; 491.042-7; 491.747-2; 491.750-2; 493.169-6; 605.120-0; 623.849-1; 675.051-6; 966.027-5 e 1.089.425-X.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3842');</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A3,"', ","'",raw!B3,"', ",raw!C3,", ","'",raw!D3,"', ","'",raw!E3,"', ","'",raw!F3,"', ","'",raw!G3,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CTA-2017-0119', '2017-12-29', null, '2017-12-29', 'Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A3,"', ","'",raw!B3,"', ",raw!C3,", ","'",raw!D3,"', ","'",raw!E3,"', ","'",raw!F3,"', ","'",raw!G3,"');")</f>
+        <v>insert into contracts values ('CTA-2017-0119', '2017-12-29', null, '2017-12-29', 'Estabelecer as principais condições da prestação e utilização do serviço público de energia elétrica entre a CEB Distribuição S.A e o SENADO FEDERAL, de acordo com as condições gerais de fornecimento de energia elétrica e demais regulamentos expedidos pela Agência Nacional de Energia Elétrica - ANEEL - no fornecimento continuado de energia elétrica para as diversas Unidades Consumidoras do Senado Federal, durante o período de 60 (sessenta) meses consecutivos.', 'CEB Distribuição S.A.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4306');</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A4,"', ","'",raw!B4,"', ",raw!C4,", ","'",raw!D4,"', ","'",raw!E4,"', ","'",raw!F4,"', ","'",raw!G4,"');")</f>
-        <v>INSERT INTO contracts VALUES ('TE-2017-0014', '2017-11-23', null, '2017-11-23', 'O Ministério de Estado do Planejamento, Desenvolvimento e Gestão, através da Secretaria de Patrimônio da União - MPDG/SPU - e a Presidência do SENADO FEDERAL, no uso de suas atribuições legais, resolvem celebrar a transferência ao Senado Federal, por meio de cessão de uso, do imóvel de propriedade da União situado no Setor de Clubes Esportivos Sul - SCE/SUL - Trecho 3 - Lote 07 - Brasília - Distrito Federal.', 'N/A', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4262');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A4,"', ","'",raw!B4,"', ",raw!C4,", ","'",raw!D4,"', ","'",raw!E4,"', ","'",raw!F4,"', ","'",raw!G4,"');")</f>
+        <v>insert into contracts values ('TE-2017-0014', '2017-11-23', null, '2017-11-23', 'O Ministério de Estado do Planejamento, Desenvolvimento e Gestão, através da Secretaria de Patrimônio da União - MPDG/SPU - e a Presidência do SENADO FEDERAL, no uso de suas atribuições legais, resolvem celebrar a transferência ao Senado Federal, por meio de cessão de uso, do imóvel de propriedade da União situado no Setor de Clubes Esportivos Sul - SCE/SUL - Trecho 3 - Lote 07 - Brasília - Distrito Federal.', 'N/A', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4262');</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A5,"', ","'",raw!B5,"', ",raw!C5,", ","'",raw!D5,"', ","'",raw!E5,"', ","'",raw!F5,"', ","'",raw!G5,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2016-0165', '2016-12-19', null, '2016-12-19', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.', 'CAESB - Companhia de Saneamento Ambiental do Distrito Federal', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A5,"', ","'",raw!B5,"', ",raw!C5,", ","'",raw!D5,"', ","'",raw!E5,"', ","'",raw!F5,"', ","'",raw!G5,"');")</f>
+        <v>insert into contracts values ('CT-2016-0165', '2016-12-19', null, '2016-12-19', 'Contratação de empresa prestadora, de forma contínua, dos serviços públicos de abastecimento de água e esgotamento sanitário, a serem utilizados no Complexo Arquitetônico do SENADO FEDERAL pela Companhia de Saneamento Ambiental do Distrito Federal - CAESB - durante o período indeterminado de vigência contratual.', 'CAESB - Companhia de Saneamento Ambiental do Distrito Federal', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3931');</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A6,"', ","'",raw!B6,"', ",raw!C6,", ","'",raw!D6,"', ","'",raw!E6,"', ","'",raw!F6,"', ","'",raw!G6,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2014-0088', '2014-12-09', '2019-12-08', '2014-12-09', 'Contratação de empresa especializada para a prestação de serviços de manutenção no Sistema de Geração de Energia Elétrica de Emergência, do Complexo Arquitetônico do SENADO FEDERAL, composto de 05 (cinco) grupos motores-geradores, movidos à óleo diesel, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3095');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A6,"', ","'",raw!B6,"', ",raw!C6,", ","'",raw!D6,"', ","'",raw!E6,"', ","'",raw!F6,"', ","'",raw!G6,"');")</f>
+        <v>insert into contracts values ('CT-2014-0088', '2014-12-09', '2019-12-08', '2014-12-09', 'Contratação de empresa especializada para a prestação de serviços de manutenção no Sistema de Geração de Energia Elétrica de Emergência, do Complexo Arquitetônico do SENADO FEDERAL, composto de 05 (cinco) grupos motores-geradores, movidos à óleo diesel, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3095');</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A7,"', ","'",raw!B7,"', ",raw!C7,", ","'",raw!D7,"', ","'",raw!E7,"', ","'",raw!F7,"', ","'",raw!G7,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2016-110', '2016-08-25', '2021-08-24', '2016-08-25', 'Contratação de empresa especializada para a prestação de serviços continuados e sob demanda, referentes à operação e manutenção preventiva e corretiva do Sistema Elétrico do Complexo Arquitetônico do SENADO FEDERAL, com operação de sistema informatizado de gerenciamento de manutenção e suprimento de insumos necessários à execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3769');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A7,"', ","'",raw!B7,"', ",raw!C7,", ","'",raw!D7,"', ","'",raw!E7,"', ","'",raw!F7,"', ","'",raw!G7,"');")</f>
+        <v>insert into contracts values ('CT-2016-110', '2016-08-25', '2021-08-24', '2016-08-25', 'Contratação de empresa especializada para a prestação de serviços continuados e sob demanda, referentes à operação e manutenção preventiva e corretiva do Sistema Elétrico do Complexo Arquitetônico do SENADO FEDERAL, com operação de sistema informatizado de gerenciamento de manutenção e suprimento de insumos necessários à execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/3769');</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO ",'create-contracts'!$B$1," VALUES (","'",raw!A8,"', ","'",raw!B8,"', ",raw!C8,", ","'",raw!D8,"', ","'",raw!E8,"', ","'",raw!F8,"', ","'",raw!G8,"');")</f>
-        <v>INSERT INTO contracts VALUES ('CT-2017-0084', '2017-10-24', '2017-12-01', '2020-11-30', 'Contratação de empresa especializada para prestação de serviços continuados e sob demanda, referentes à operação, manutenção preventiva e corretiva do Sistema Hidrossanitário em todo o Complexo Arquitetônico do SENADO FEDERAL, incluindo a operação de sistema de controle de manutenção informatizado, fornecimento de suprimentos, insumos e de mão de obra necessários à plena execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4298');</v>
+        <f>CONCATENATE("insert into ",'create-contracts'!$B$1," values (","'",raw!A8,"', ","'",raw!B8,"', ",raw!C8,", ","'",raw!D8,"', ","'",raw!E8,"', ","'",raw!F8,"', ","'",raw!G8,"');")</f>
+        <v>insert into contracts values ('CT-2017-0084', '2017-10-24', '2017-12-01', '2020-11-30', 'Contratação de empresa especializada para prestação de serviços continuados e sob demanda, referentes à operação, manutenção preventiva e corretiva do Sistema Hidrossanitário em todo o Complexo Arquitetônico do SENADO FEDERAL, incluindo a operação de sistema de controle de manutenção informatizado, fornecimento de suprimentos, insumos e de mão de obra necessários à plena execução dos serviços, durante o período de 36 (trinta e seis) meses consecutivos.', 'RCS Tecnologia Ltda.', 'https://www6g.senado.gov.br/transparencia/licitacoes-e-contratos/contratos/4298');</v>
       </c>
     </row>
   </sheetData>
